--- a/analysis/manuscript/ms to do.xlsx
+++ b/analysis/manuscript/ms to do.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diaz.renata\Documents\GitHub\scadsanalysis\analysis\manuscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446D5EBF-4A9F-4512-B2CF-C78BFDF1F5C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EFE771-0BE9-4E34-A7B2-171FF673957B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="19005" windowHeight="12405" xr2:uid="{6CC7C60E-3F1D-4207-AA33-E1A00365650B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="46">
   <si>
     <t>Title page</t>
   </si>
@@ -44,38 +44,9 @@
     <t>Authorship statement</t>
   </si>
   <si>
-    <t>OK - make sure Hao is good with it</t>
-  </si>
-  <si>
     <t>Data accessibility statement</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Do datasets I'm currently downloading direct from GitHub count as "in a public repository"? Do the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">results of the analyses </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>count as "new data"?</t>
-    </r>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
@@ -85,9 +56,6 @@
     <t>Author names and affiliations</t>
   </si>
   <si>
-    <t>Formatting and check for correctness</t>
-  </si>
-  <si>
     <t>Running title</t>
   </si>
   <si>
@@ -103,24 +71,15 @@
     <t>Word counts</t>
   </si>
   <si>
-    <t>Abstract; main text (excluding abstract, acknowledgements, refs, tables, and legends)</t>
-  </si>
-  <si>
     <t>Number of refs</t>
   </si>
   <si>
     <t>Number of figs, tables, and text boxes</t>
   </si>
   <si>
-    <t>Name and mailing address (incl telephone and fax, and email???) of corresponding author</t>
-  </si>
-  <si>
     <t>Abstract page</t>
   </si>
   <si>
-    <t>Needs to exist &lt; 150 words &amp; look at M's edits</t>
-  </si>
-  <si>
     <t>Introduction</t>
   </si>
   <si>
@@ -139,9 +98,6 @@
     <t>Subsection</t>
   </si>
   <si>
-    <t>Task</t>
-  </si>
-  <si>
     <t>Description of sampling algorithm (brief)</t>
   </si>
   <si>
@@ -158,9 +114,6 @@
   </si>
   <si>
     <t>Write acknowledgements</t>
-  </si>
-  <si>
-    <t>Proper attribution for NSF funding</t>
   </si>
   <si>
     <t>References</t>
@@ -221,12 +174,33 @@
   <si>
     <t>Supplement 2</t>
   </si>
+  <si>
+    <t xml:space="preserve">Submission </t>
+  </si>
+  <si>
+    <t>Reviewer suggestions</t>
+  </si>
+  <si>
+    <t>Any conflicted/suggested reviewers? (Kitzes, Newman, Harte, Locey?)</t>
+  </si>
+  <si>
+    <t>Task (prior to sending to M and H)</t>
+  </si>
+  <si>
+    <t>Nb of refs</t>
+  </si>
+  <si>
+    <t>Nb of figs</t>
+  </si>
+  <si>
+    <t>M's edits; renumber to 1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,14 +210,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -590,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8D4B9F-6892-4B45-B116-69A918B3F484}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,24 +571,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -633,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -644,18 +610,18 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -663,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -674,10 +640,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -685,10 +651,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -696,10 +662,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -707,19 +673,21 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -727,102 +695,106 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>22</v>
@@ -830,112 +802,145 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>22</v>
+      <c r="C33" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/manuscript/ms to do.xlsx
+++ b/analysis/manuscript/ms to do.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diaz.renata\Documents\GitHub\scadsanalysis\analysis\manuscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EFE771-0BE9-4E34-A7B2-171FF673957B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC91EA8C-4D81-40BB-BC75-6970A3E2E010}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="19005" windowHeight="12405" xr2:uid="{6CC7C60E-3F1D-4207-AA33-E1A00365650B}"/>
+    <workbookView xWindow="555" yWindow="10590" windowWidth="19005" windowHeight="6915" xr2:uid="{6CC7C60E-3F1D-4207-AA33-E1A00365650B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="59">
   <si>
     <t>Title page</t>
   </si>
@@ -89,9 +89,6 @@
     <t>Methods</t>
   </si>
   <si>
-    <t>M's edits generally</t>
-  </si>
-  <si>
     <t>Section</t>
   </si>
   <si>
@@ -101,9 +98,6 @@
     <t>Description of sampling algorithm (brief)</t>
   </si>
   <si>
-    <t>New name for 95% interval + rename in scope</t>
-  </si>
-  <si>
     <t>Results</t>
   </si>
   <si>
@@ -111,9 +105,6 @@
   </si>
   <si>
     <t>Acknowledgements</t>
-  </si>
-  <si>
-    <t>Write acknowledgements</t>
   </si>
   <si>
     <t>References</t>
@@ -194,6 +185,54 @@
   </si>
   <si>
     <t>M's edits; renumber to 1</t>
+  </si>
+  <si>
+    <t>Rename 95% interval in figs and supplement</t>
+  </si>
+  <si>
+    <t>Figures</t>
+  </si>
+  <si>
+    <t>M edits</t>
+  </si>
+  <si>
+    <t>Regenerate Fig 1</t>
+  </si>
+  <si>
+    <t>Figure formatting (end of doc, legend formatting, etc)</t>
+  </si>
+  <si>
+    <t>Remove FS size from the titles; rename to breadth index</t>
+  </si>
+  <si>
+    <t>Regenerate Fig 2</t>
+  </si>
+  <si>
+    <t>Fig 2 legend</t>
+  </si>
+  <si>
+    <t>Regenerate Fig 3</t>
+  </si>
+  <si>
+    <t>Change x axis to "breadth index"; add a line that reminds that 0 is narrow and 1 is broad; put a subtitle that says skewess/evenness</t>
+  </si>
+  <si>
+    <t>Fig 3 legend</t>
+  </si>
+  <si>
+    <t>Regenerate Fig 4</t>
+  </si>
+  <si>
+    <t>Remove skew and even fromx axis and make subtites for skew/even. Stack them vertically so they can be bigger on the page.</t>
+  </si>
+  <si>
+    <t>Fig 4 legend</t>
+  </si>
+  <si>
+    <t>Supplement figs</t>
+  </si>
+  <si>
+    <t>Regenerate to match changes to manuscript figures</t>
   </si>
 </sst>
 </file>
@@ -556,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8D4B9F-6892-4B45-B116-69A918B3F484}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,24 +610,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -720,7 +759,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -731,7 +770,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -739,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
@@ -775,7 +814,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -786,7 +825,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -797,48 +836,48 @@
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>8</v>
@@ -846,10 +885,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>1</v>
@@ -857,76 +896,76 @@
     </row>
     <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>16</v>
@@ -934,13 +973,120 @@
     </row>
     <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/manuscript/ms to do.xlsx
+++ b/analysis/manuscript/ms to do.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diaz.renata\Documents\GitHub\scadsanalysis\analysis\manuscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC91EA8C-4D81-40BB-BC75-6970A3E2E010}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A05444E-FC74-4F11-ADF9-9EBD85FBCA6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="555" yWindow="10590" windowWidth="19005" windowHeight="6915" xr2:uid="{6CC7C60E-3F1D-4207-AA33-E1A00365650B}"/>
+    <workbookView xWindow="4245" yWindow="4245" windowWidth="19005" windowHeight="6915" xr2:uid="{6CC7C60E-3F1D-4207-AA33-E1A00365650B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="63">
   <si>
     <t>Title page</t>
   </si>
@@ -223,9 +223,6 @@
     <t>Regenerate Fig 4</t>
   </si>
   <si>
-    <t>Remove skew and even fromx axis and make subtites for skew/even. Stack them vertically so they can be bigger on the page.</t>
-  </si>
-  <si>
     <t>Fig 4 legend</t>
   </si>
   <si>
@@ -233,6 +230,21 @@
   </si>
   <si>
     <t>Regenerate to match changes to manuscript figures</t>
+  </si>
+  <si>
+    <t>Move old Fig 1 to supplement (pick which supplement it goes in)</t>
+  </si>
+  <si>
+    <t>Remove skew and even fromx axis and make subtites for skew/even. Stack them vertically so they can be bigger on the page. Add panels for the breadth indices</t>
+  </si>
+  <si>
+    <t>Change legends?</t>
+  </si>
+  <si>
+    <t>Supplement 1 (now 3)</t>
+  </si>
+  <si>
+    <t>Figure and table legends; double check values and figures with new filters etc</t>
   </si>
 </sst>
 </file>
@@ -595,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8D4B9F-6892-4B45-B116-69A918B3F484}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,6 +1034,9 @@
       <c r="B38" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="C38" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
@@ -1031,7 +1046,7 @@
         <v>50</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -1053,10 +1068,10 @@
         <v>53</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>44</v>
       </c>
@@ -1064,7 +1079,7 @@
         <v>54</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1072,10 +1087,10 @@
         <v>44</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1083,10 +1098,32 @@
         <v>44</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="1" t="s">
+    </row>
+    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/manuscript/ms to do.xlsx
+++ b/analysis/manuscript/ms to do.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diaz.renata\Documents\GitHub\scadsanalysis\analysis\manuscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A05444E-FC74-4F11-ADF9-9EBD85FBCA6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670B085C-188A-4433-A18C-1955A49BBA8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="4245" windowWidth="19005" windowHeight="6915" xr2:uid="{6CC7C60E-3F1D-4207-AA33-E1A00365650B}"/>
+    <workbookView xWindow="3180" yWindow="975" windowWidth="9510" windowHeight="3465" xr2:uid="{6CC7C60E-3F1D-4207-AA33-E1A00365650B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="62">
   <si>
     <t>Title page</t>
   </si>
@@ -202,9 +202,6 @@
     <t>Figure formatting (end of doc, legend formatting, etc)</t>
   </si>
   <si>
-    <t>Remove FS size from the titles; rename to breadth index</t>
-  </si>
-  <si>
     <t>Regenerate Fig 2</t>
   </si>
   <si>
@@ -238,13 +235,13 @@
     <t>Remove skew and even fromx axis and make subtites for skew/even. Stack them vertically so they can be bigger on the page. Add panels for the breadth indices</t>
   </si>
   <si>
-    <t>Change legends?</t>
-  </si>
-  <si>
     <t>Supplement 1 (now 3)</t>
   </si>
   <si>
     <t>Figure and table legends; double check values and figures with new filters etc</t>
+  </si>
+  <si>
+    <t>OK?</t>
   </si>
 </sst>
 </file>
@@ -610,7 +607,7 @@
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,7 +1002,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
@@ -1013,7 +1010,7 @@
         <v>46</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1032,10 +1029,10 @@
         <v>44</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1043,7 +1040,7 @@
         <v>44</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>8</v>
@@ -1054,10 +1051,10 @@
         <v>44</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1065,7 +1062,7 @@
         <v>44</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>8</v>
@@ -1076,10 +1073,10 @@
         <v>44</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1087,7 +1084,7 @@
         <v>44</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>8</v>
@@ -1098,10 +1095,10 @@
         <v>44</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1109,10 +1106,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -1120,10 +1117,10 @@
         <v>27</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/manuscript/ms to do.xlsx
+++ b/analysis/manuscript/ms to do.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diaz.renata\Documents\GitHub\scadsanalysis\analysis\manuscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670B085C-188A-4433-A18C-1955A49BBA8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E883E9-9ADB-4E04-8212-C35312C1C88F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="975" windowWidth="9510" windowHeight="3465" xr2:uid="{6CC7C60E-3F1D-4207-AA33-E1A00365650B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="17520" xr2:uid="{6CC7C60E-3F1D-4207-AA33-E1A00365650B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="56">
   <si>
     <t>Title page</t>
   </si>
@@ -145,15 +145,6 @@
     </r>
   </si>
   <si>
-    <t>Check supp info reference formatting in main text</t>
-  </si>
-  <si>
-    <t>Any refs?</t>
-  </si>
-  <si>
-    <t>Supplement 3</t>
-  </si>
-  <si>
     <t>Cover letter</t>
   </si>
   <si>
@@ -163,9 +154,6 @@
     <t>Address</t>
   </si>
   <si>
-    <t>Supplement 2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Submission </t>
   </si>
   <si>
@@ -184,24 +172,15 @@
     <t>Nb of figs</t>
   </si>
   <si>
-    <t>M's edits; renumber to 1</t>
-  </si>
-  <si>
     <t>Rename 95% interval in figs and supplement</t>
   </si>
   <si>
     <t>Figures</t>
   </si>
   <si>
-    <t>M edits</t>
-  </si>
-  <si>
     <t>Regenerate Fig 1</t>
   </si>
   <si>
-    <t>Figure formatting (end of doc, legend formatting, etc)</t>
-  </si>
-  <si>
     <t>Regenerate Fig 2</t>
   </si>
   <si>
@@ -211,9 +190,6 @@
     <t>Regenerate Fig 3</t>
   </si>
   <si>
-    <t>Change x axis to "breadth index"; add a line that reminds that 0 is narrow and 1 is broad; put a subtitle that says skewess/evenness</t>
-  </si>
-  <si>
     <t>Fig 3 legend</t>
   </si>
   <si>
@@ -226,22 +202,28 @@
     <t>Supplement figs</t>
   </si>
   <si>
-    <t>Regenerate to match changes to manuscript figures</t>
-  </si>
-  <si>
-    <t>Move old Fig 1 to supplement (pick which supplement it goes in)</t>
-  </si>
-  <si>
-    <t>Remove skew and even fromx axis and make subtites for skew/even. Stack them vertically so they can be bigger on the page. Add panels for the breadth indices</t>
-  </si>
-  <si>
     <t>Supplement 1 (now 3)</t>
   </si>
   <si>
-    <t>Figure and table legends; double check values and figures with new filters etc</t>
-  </si>
-  <si>
-    <t>OK?</t>
+    <t>Tables S4 and S6</t>
+  </si>
+  <si>
+    <t>Need captions</t>
+  </si>
+  <si>
+    <t>S1 (filtering)</t>
+  </si>
+  <si>
+    <t>S2 (self sim)</t>
+  </si>
+  <si>
+    <t>Figures S3 and S5</t>
+  </si>
+  <si>
+    <t>How to provide legends?</t>
+  </si>
+  <si>
+    <t>Check for any references and format appropriately</t>
   </si>
 </sst>
 </file>
@@ -604,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8D4B9F-6892-4B45-B116-69A918B3F484}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,18 +607,18 @@
         <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -768,7 +750,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -779,7 +761,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -787,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
@@ -845,7 +827,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -936,7 +918,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
@@ -944,10 +926,10 @@
         <v>27</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
@@ -955,172 +937,194 @@
         <v>27</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="C39" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>60</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/manuscript/ms to do.xlsx
+++ b/analysis/manuscript/ms to do.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diaz.renata\Documents\GitHub\scadsanalysis\analysis\manuscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E883E9-9ADB-4E04-8212-C35312C1C88F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9C47DD-18F2-4762-B6B8-9FBB52D9E031}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="17520" xr2:uid="{6CC7C60E-3F1D-4207-AA33-E1A00365650B}"/>
   </bookViews>
@@ -148,9 +148,6 @@
     <t>Cover letter</t>
   </si>
   <si>
-    <t>M and E's edits</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
@@ -224,6 +221,9 @@
   </si>
   <si>
     <t>Check for any references and format appropriately</t>
+  </si>
+  <si>
+    <t>Needs refs examples of SADs to evaluate theory</t>
   </si>
 </sst>
 </file>
@@ -589,7 +589,7 @@
   <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,10 +607,10 @@
         <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -618,7 +618,7 @@
         <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -750,7 +750,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -761,7 +761,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
@@ -827,7 +827,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -937,26 +937,26 @@
         <v>27</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>8</v>
@@ -964,10 +964,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>8</v>
@@ -975,10 +975,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>8</v>
@@ -986,10 +986,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>8</v>
@@ -997,10 +997,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>8</v>
@@ -1008,10 +1008,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>8</v>
@@ -1019,10 +1019,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>8</v>
@@ -1030,10 +1030,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
@@ -1041,10 +1041,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>8</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>8</v>
@@ -1063,10 +1063,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>8</v>
@@ -1077,7 +1077,7 @@
         <v>27</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>8</v>
@@ -1088,10 +1088,10 @@
         <v>27</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1099,7 +1099,7 @@
         <v>27</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>16</v>
@@ -1110,7 +1110,7 @@
         <v>27</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>16</v>
@@ -1121,10 +1121,10 @@
         <v>27</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
